--- a/artfynd/A 30411-2022.xlsx
+++ b/artfynd/A 30411-2022.xlsx
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>90840129</v>
+        <v>90840044</v>
       </c>
       <c r="B3" t="n">
-        <v>95661</v>
+        <v>96660</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,21 +817,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222741</v>
+        <v>219880</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>434297.2137459199</v>
+        <v>434233.891650366</v>
       </c>
       <c r="R3" t="n">
-        <v>7017438.897354239</v>
+        <v>7017318.194570087</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -922,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>90840127</v>
+        <v>90840073</v>
       </c>
       <c r="B4" t="n">
-        <v>98520</v>
+        <v>95661</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,21 +938,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222498</v>
+        <v>222741</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>434297.2137459199</v>
+        <v>434215.8573603941</v>
       </c>
       <c r="R4" t="n">
-        <v>7017438.897354239</v>
+        <v>7017229.87649797</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>90840044</v>
+        <v>90840045</v>
       </c>
       <c r="B5" t="n">
-        <v>96660</v>
+        <v>98431</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1059,21 +1059,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>219880</v>
+        <v>222771</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1164,10 +1164,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>90840073</v>
+        <v>90840041</v>
       </c>
       <c r="B6" t="n">
-        <v>95661</v>
+        <v>101680</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1180,21 +1180,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222741</v>
+        <v>222412</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1204,10 +1204,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>434215.8573603941</v>
+        <v>434234.1209817429</v>
       </c>
       <c r="R6" t="n">
-        <v>7017229.87649797</v>
+        <v>7017175.029366678</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1285,10 +1285,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>90840045</v>
+        <v>90840157</v>
       </c>
       <c r="B7" t="n">
-        <v>98431</v>
+        <v>95661</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1301,34 +1301,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>222771</v>
+        <v>222741</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Blecktjärnberget_Ö, Jmt</t>
+          <t>Blecktjärnberget_V, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>434233.891650366</v>
+        <v>434037.0558385531</v>
       </c>
       <c r="R7" t="n">
-        <v>7017318.194570087</v>
+        <v>7017260.098454888</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1406,10 +1406,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>90840041</v>
+        <v>94963069</v>
       </c>
       <c r="B8" t="n">
-        <v>101680</v>
+        <v>98431</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1422,16 +1422,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222412</v>
+        <v>222771</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1439,20 +1439,28 @@
           <t>L.</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Blecktjärnberget_Ö, Jmt</t>
+          <t>Blecktjärnberget N, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>434234.1209817429</v>
+        <v>434225.0354556352</v>
       </c>
       <c r="R8" t="n">
-        <v>7017175.029366678</v>
+        <v>7017259.851631644</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1476,7 +1484,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2021-06-26</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1486,7 +1494,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2021-06-26</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1500,37 +1508,29 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>Kalkbarrskog</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Johnsen</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY8" t="inlineStr">
-        <is>
-          <t>Kalkbarrskogar i Jämtlands län</t>
-        </is>
-      </c>
+          <t>Andreas Johnsen</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>90840157</v>
+        <v>94962803</v>
       </c>
       <c r="B9" t="n">
-        <v>95661</v>
+        <v>96237</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1543,37 +1543,49 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>222741</v>
+        <v>220093</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>Châtel.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Blecktjärnberget_V, Jmt</t>
+          <t>Blecktjärnberget N, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>434037.0558385531</v>
+        <v>434105.4177909018</v>
       </c>
       <c r="R9" t="n">
-        <v>7017260.098454888</v>
+        <v>7017406.356434698</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1597,7 +1609,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2021-06-26</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1607,7 +1619,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2021-06-26</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1621,37 +1633,29 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>Kalkbarrskog</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Johnsen</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr">
-        <is>
-          <t>Kalkbarrskogar i Jämtlands län</t>
-        </is>
-      </c>
+          <t>Andreas Johnsen</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>94963069</v>
+        <v>94962930</v>
       </c>
       <c r="B10" t="n">
-        <v>98431</v>
+        <v>96354</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1664,21 +1668,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>222771</v>
+        <v>221952</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1687,7 +1691,11 @@
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
@@ -1696,10 +1704,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>434225.0354556352</v>
+        <v>434094.5748307628</v>
       </c>
       <c r="R10" t="n">
-        <v>7017259.851631644</v>
+        <v>7017383.169662394</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1769,10 +1777,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>94962803</v>
+        <v>94962619</v>
       </c>
       <c r="B11" t="n">
-        <v>96237</v>
+        <v>78569</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1781,39 +1789,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220093</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Châtel.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1821,10 +1820,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>434105.4177909018</v>
+        <v>434091.4792506195</v>
       </c>
       <c r="R11" t="n">
-        <v>7017406.356434698</v>
+        <v>7017452.10868334</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1894,10 +1893,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>94963329</v>
+        <v>94963048</v>
       </c>
       <c r="B12" t="n">
-        <v>89410</v>
+        <v>98520</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1906,30 +1905,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>222498</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1937,10 +1937,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>434269.4150404329</v>
+        <v>434225.0354556352</v>
       </c>
       <c r="R12" t="n">
-        <v>7017468.27549175</v>
+        <v>7017259.851631644</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>94962930</v>
+        <v>94963038</v>
       </c>
       <c r="B13" t="n">
-        <v>96354</v>
+        <v>78569</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2022,39 +2022,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2062,10 +2053,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>434094.5748307628</v>
+        <v>434225.0354556352</v>
       </c>
       <c r="R13" t="n">
-        <v>7017383.169662394</v>
+        <v>7017259.851631644</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2135,10 +2126,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>94962619</v>
+        <v>94963260</v>
       </c>
       <c r="B14" t="n">
-        <v>78569</v>
+        <v>96354</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2147,30 +2138,39 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2178,10 +2178,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>434091.4792506195</v>
+        <v>434236.4763898699</v>
       </c>
       <c r="R14" t="n">
-        <v>7017452.10868334</v>
+        <v>7017466.69782447</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2251,10 +2251,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>94963048</v>
+        <v>94962933</v>
       </c>
       <c r="B15" t="n">
-        <v>98520</v>
+        <v>96232</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2267,26 +2267,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>222498</v>
+        <v>219795</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grönkulla</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Coeloglossum viride</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>(L.) Hartm.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
@@ -2295,10 +2303,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>434225.0354556352</v>
+        <v>434094.5748307628</v>
       </c>
       <c r="R15" t="n">
-        <v>7017259.851631644</v>
+        <v>7017383.169662394</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2368,10 +2376,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>94963038</v>
+        <v>94963239</v>
       </c>
       <c r="B16" t="n">
-        <v>78569</v>
+        <v>103250</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2380,30 +2388,39 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>221725</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>(L.) A. Gray</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2411,10 +2428,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>434225.0354556352</v>
+        <v>434232.4482013849</v>
       </c>
       <c r="R16" t="n">
-        <v>7017259.851631644</v>
+        <v>7017379.898191548</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2484,10 +2501,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>94963207</v>
+        <v>102611107</v>
       </c>
       <c r="B17" t="n">
-        <v>96660</v>
+        <v>96334</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2496,45 +2513,49 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>219880</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Blecktjärnberget N, Jmt</t>
+          <t>Mörsil, Blecktjärnberget, Mörsil, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>434246.2419267034</v>
+        <v>434065.9006318445</v>
       </c>
       <c r="R17" t="n">
-        <v>7017326.945739863</v>
+        <v>7017193.778879828</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2558,22 +2579,22 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2021-06-26</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2021-06-26</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2589,22 +2610,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>94963260</v>
+        <v>102611204</v>
       </c>
       <c r="B18" t="n">
-        <v>96354</v>
+        <v>96232</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2617,49 +2638,41 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>221952</v>
+        <v>219795</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Grönkulla</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Coeloglossum viride</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>(L.) Hartm.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Blecktjärnberget N, Jmt</t>
+          <t>Mörsil, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>434236.4763898699</v>
+        <v>434110.933580164</v>
       </c>
       <c r="R18" t="n">
-        <v>7017466.69782447</v>
+        <v>7017367.528716818</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2683,7 +2696,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2021-06-26</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2693,7 +2706,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2021-06-26</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2714,22 +2727,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>94963406</v>
+        <v>90840129</v>
       </c>
       <c r="B19" t="n">
-        <v>78569</v>
+        <v>95661</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2738,44 +2751,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>222741</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Blecktjärnberget N, Jmt</t>
+          <t>Blecktjärnberget_Ö, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>434320.166674193</v>
+        <v>434297.2137459199</v>
       </c>
       <c r="R19" t="n">
-        <v>7017415.020133032</v>
+        <v>7017438.897354239</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2799,7 +2809,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2021-06-26</t>
+          <t>2019-08-25</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2809,7 +2819,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2021-06-26</t>
+          <t>2019-08-25</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2823,29 +2833,37 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Kalkbarrskog</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
-        </is>
-      </c>
-      <c r="AY19" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>Kalkbarrskogar i Jämtlands län</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>94963281</v>
+        <v>90840127</v>
       </c>
       <c r="B20" t="n">
-        <v>78569</v>
+        <v>98520</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2854,44 +2872,41 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Blecktjärnberget N, Jmt</t>
+          <t>Blecktjärnberget_Ö, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>434260.7802753559</v>
+        <v>434297.2137459199</v>
       </c>
       <c r="R20" t="n">
-        <v>7017508.965992403</v>
+        <v>7017438.897354239</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2915,7 +2930,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2021-06-26</t>
+          <t>2019-08-25</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2925,7 +2940,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2021-06-26</t>
+          <t>2019-08-25</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2939,29 +2954,37 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>Kalkbarrskog</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
-        </is>
-      </c>
-      <c r="AY20" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>Kalkbarrskogar i Jämtlands län</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>94962933</v>
+        <v>94963329</v>
       </c>
       <c r="B21" t="n">
-        <v>96232</v>
+        <v>89410</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2970,39 +2993,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>219795</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Grönkulla</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Coeloglossum viride</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hartm.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3010,10 +3024,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>434094.5748307628</v>
+        <v>434269.4150404329</v>
       </c>
       <c r="R21" t="n">
-        <v>7017383.169662394</v>
+        <v>7017468.27549175</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3083,10 +3097,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>94963239</v>
+        <v>94963207</v>
       </c>
       <c r="B22" t="n">
-        <v>103250</v>
+        <v>96660</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3099,34 +3113,26 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>221725</v>
+        <v>219880</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>(L.) All.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
@@ -3135,10 +3141,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>434232.4482013849</v>
+        <v>434246.2419267034</v>
       </c>
       <c r="R22" t="n">
-        <v>7017379.898191548</v>
+        <v>7017326.945739863</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3208,10 +3214,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>94963309</v>
+        <v>94963406</v>
       </c>
       <c r="B23" t="n">
-        <v>103250</v>
+        <v>78569</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3220,39 +3226,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>221725</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3260,10 +3257,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>434264.7802457917</v>
+        <v>434320.166674193</v>
       </c>
       <c r="R23" t="n">
-        <v>7017528.240804829</v>
+        <v>7017415.020133032</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3333,10 +3330,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>102611118</v>
+        <v>94963281</v>
       </c>
       <c r="B24" t="n">
-        <v>89673</v>
+        <v>78569</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3349,21 +3346,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3372,17 +3369,17 @@
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>mörsil, Blecktjärnberget, Mörsil, Jmt</t>
+          <t>Blecktjärnberget N, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>434241.9566644991</v>
+        <v>434260.7802753559</v>
       </c>
       <c r="R24" t="n">
-        <v>7017359.896222587</v>
+        <v>7017508.965992403</v>
       </c>
       <c r="S24" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3406,22 +3403,22 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2021-06-26</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2021-06-26</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3437,22 +3434,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Johnsen</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Johnsen</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>102611107</v>
+        <v>94963309</v>
       </c>
       <c r="B25" t="n">
-        <v>96334</v>
+        <v>103250</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3461,49 +3458,53 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>221725</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) A. Gray</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>23</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Mörsil, Blecktjärnberget, Mörsil, Jmt</t>
+          <t>Blecktjärnberget N, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>434065.9006318445</v>
+        <v>434264.7802457917</v>
       </c>
       <c r="R25" t="n">
-        <v>7017193.778879828</v>
+        <v>7017528.240804829</v>
       </c>
       <c r="S25" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3527,22 +3528,22 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2021-06-26</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2021-06-26</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3558,22 +3559,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Johnsen</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Johnsen</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>103104990</v>
+        <v>102611118</v>
       </c>
       <c r="B26" t="n">
-        <v>96334</v>
+        <v>89673</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3582,53 +3583,44 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Blecktjärnberget N, Jmt</t>
+          <t>mörsil, Blecktjärnberget, Mörsil, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>434354.2930101439</v>
+        <v>434241.9566644991</v>
       </c>
       <c r="R26" t="n">
-        <v>7017386.41321839</v>
+        <v>7017359.896222587</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3652,27 +3644,22 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2022-07-29</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2022-07-29</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Ca, varav 3 blomskott.</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3688,22 +3675,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>102611135</v>
+        <v>103104990</v>
       </c>
       <c r="B27" t="n">
-        <v>78569</v>
+        <v>96334</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3712,44 +3699,53 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Mörsil, Jmt</t>
+          <t>Blecktjärnberget N, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>434300.4342516295</v>
+        <v>434354.2930101439</v>
       </c>
       <c r="R27" t="n">
-        <v>7017309.632198842</v>
+        <v>7017386.41321839</v>
       </c>
       <c r="S27" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3773,22 +3769,27 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2022-07-29</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2022-07-29</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Ca, varav 3 blomskott.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3804,22 +3805,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Johnsen</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Johnsen</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>102611113</v>
+        <v>102611135</v>
       </c>
       <c r="B28" t="n">
-        <v>89410</v>
+        <v>78569</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3832,21 +3833,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3855,14 +3856,14 @@
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Mörsil, Blecktjärnberget, Mörsil, Jmt</t>
+          <t>Mörsil, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>434274.9430811582</v>
+        <v>434300.4342516295</v>
       </c>
       <c r="R28" t="n">
-        <v>7017275.488688656</v>
+        <v>7017309.632198842</v>
       </c>
       <c r="S28" t="n">
         <v>50</v>
@@ -3932,10 +3933,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>102611123</v>
+        <v>102611113</v>
       </c>
       <c r="B29" t="n">
-        <v>78570</v>
+        <v>89410</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3948,21 +3949,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3971,14 +3972,14 @@
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Mörsil, Jmt</t>
+          <t>Mörsil, Blecktjärnberget, Mörsil, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>434300.4342516295</v>
+        <v>434274.9430811582</v>
       </c>
       <c r="R29" t="n">
-        <v>7017309.632198842</v>
+        <v>7017275.488688656</v>
       </c>
       <c r="S29" t="n">
         <v>50</v>
@@ -4048,10 +4049,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>102611204</v>
+        <v>102611123</v>
       </c>
       <c r="B30" t="n">
-        <v>96232</v>
+        <v>78570</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4060,31 +4061,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>219795</v>
+        <v>2081</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Grönkulla</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Coeloglossum viride</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hartm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4092,13 +4092,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>434110.933580164</v>
+        <v>434300.4342516295</v>
       </c>
       <c r="R30" t="n">
-        <v>7017367.528716818</v>
+        <v>7017309.632198842</v>
       </c>
       <c r="S30" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD30" t="b">

--- a/artfynd/A 30411-2022.xlsx
+++ b/artfynd/A 30411-2022.xlsx
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>90840044</v>
+        <v>90840129</v>
       </c>
       <c r="B3" t="n">
-        <v>96660</v>
+        <v>95661</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,21 +817,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>219880</v>
+        <v>222741</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>434233.891650366</v>
+        <v>434297.2137459199</v>
       </c>
       <c r="R3" t="n">
-        <v>7017318.194570087</v>
+        <v>7017438.897354239</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -922,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>90840073</v>
+        <v>90840127</v>
       </c>
       <c r="B4" t="n">
-        <v>95661</v>
+        <v>98520</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,21 +938,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222741</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>434215.8573603941</v>
+        <v>434297.2137459199</v>
       </c>
       <c r="R4" t="n">
-        <v>7017229.87649797</v>
+        <v>7017438.897354239</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>90840045</v>
+        <v>90840044</v>
       </c>
       <c r="B5" t="n">
-        <v>98431</v>
+        <v>96660</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1059,21 +1059,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222771</v>
+        <v>219880</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1164,10 +1164,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>90840041</v>
+        <v>90840073</v>
       </c>
       <c r="B6" t="n">
-        <v>101680</v>
+        <v>95661</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1180,21 +1180,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222412</v>
+        <v>222741</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1204,10 +1204,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>434234.1209817429</v>
+        <v>434215.8573603941</v>
       </c>
       <c r="R6" t="n">
-        <v>7017175.029366678</v>
+        <v>7017229.87649797</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1285,10 +1285,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>90840157</v>
+        <v>90840045</v>
       </c>
       <c r="B7" t="n">
-        <v>95661</v>
+        <v>98431</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1301,34 +1301,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>222741</v>
+        <v>222771</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Blecktjärnberget_V, Jmt</t>
+          <t>Blecktjärnberget_Ö, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>434037.0558385531</v>
+        <v>434233.891650366</v>
       </c>
       <c r="R7" t="n">
-        <v>7017260.098454888</v>
+        <v>7017318.194570087</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1406,10 +1406,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>94963069</v>
+        <v>90840041</v>
       </c>
       <c r="B8" t="n">
-        <v>98431</v>
+        <v>101680</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1422,16 +1422,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222771</v>
+        <v>222412</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1439,28 +1439,20 @@
           <t>L.</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Blecktjärnberget N, Jmt</t>
+          <t>Blecktjärnberget_Ö, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>434225.0354556352</v>
+        <v>434234.1209817429</v>
       </c>
       <c r="R8" t="n">
-        <v>7017259.851631644</v>
+        <v>7017175.029366678</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1484,7 +1476,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2021-06-26</t>
+          <t>2019-08-25</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1494,7 +1486,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2021-06-26</t>
+          <t>2019-08-25</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1508,29 +1500,37 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Kalkbarrskog</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
-        </is>
-      </c>
-      <c r="AY8" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>Kalkbarrskogar i Jämtlands län</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>94962803</v>
+        <v>90840157</v>
       </c>
       <c r="B9" t="n">
-        <v>96237</v>
+        <v>95661</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1543,49 +1543,37 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220093</v>
+        <v>222741</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Châtel.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+          <t>(Lam.) Desv.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Blecktjärnberget N, Jmt</t>
+          <t>Blecktjärnberget_V, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>434105.4177909018</v>
+        <v>434037.0558385531</v>
       </c>
       <c r="R9" t="n">
-        <v>7017406.356434698</v>
+        <v>7017260.098454888</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1609,7 +1597,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2021-06-26</t>
+          <t>2019-08-25</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1619,7 +1607,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2021-06-26</t>
+          <t>2019-08-25</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1633,29 +1621,37 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Kalkbarrskog</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>Kalkbarrskogar i Jämtlands län</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>94962930</v>
+        <v>94963069</v>
       </c>
       <c r="B10" t="n">
-        <v>96354</v>
+        <v>98431</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1668,21 +1664,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221952</v>
+        <v>222771</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1691,11 +1687,7 @@
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
@@ -1704,10 +1696,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>434094.5748307628</v>
+        <v>434225.0354556352</v>
       </c>
       <c r="R10" t="n">
-        <v>7017383.169662394</v>
+        <v>7017259.851631644</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1777,10 +1769,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>94962619</v>
+        <v>94962803</v>
       </c>
       <c r="B11" t="n">
-        <v>78569</v>
+        <v>96237</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1789,30 +1781,39 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>220093</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>Châtel.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1820,10 +1821,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>434091.4792506195</v>
+        <v>434105.4177909018</v>
       </c>
       <c r="R11" t="n">
-        <v>7017452.10868334</v>
+        <v>7017406.356434698</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1893,10 +1894,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>94963048</v>
+        <v>94963329</v>
       </c>
       <c r="B12" t="n">
-        <v>98520</v>
+        <v>89410</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1905,31 +1906,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>222498</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1937,10 +1937,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>434225.0354556352</v>
+        <v>434269.4150404329</v>
       </c>
       <c r="R12" t="n">
-        <v>7017259.851631644</v>
+        <v>7017468.27549175</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>94963038</v>
+        <v>94962930</v>
       </c>
       <c r="B13" t="n">
-        <v>78569</v>
+        <v>96354</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2022,30 +2022,39 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2053,10 +2062,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>434225.0354556352</v>
+        <v>434094.5748307628</v>
       </c>
       <c r="R13" t="n">
-        <v>7017259.851631644</v>
+        <v>7017383.169662394</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2126,10 +2135,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>94963260</v>
+        <v>94962619</v>
       </c>
       <c r="B14" t="n">
-        <v>96354</v>
+        <v>78569</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2138,39 +2147,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2178,10 +2178,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>434236.4763898699</v>
+        <v>434091.4792506195</v>
       </c>
       <c r="R14" t="n">
-        <v>7017466.69782447</v>
+        <v>7017452.10868334</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2251,10 +2251,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>94962933</v>
+        <v>94963048</v>
       </c>
       <c r="B15" t="n">
-        <v>96232</v>
+        <v>98520</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2267,34 +2267,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>219795</v>
+        <v>222498</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Grönkulla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Coeloglossum viride</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hartm.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
@@ -2303,10 +2295,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>434094.5748307628</v>
+        <v>434225.0354556352</v>
       </c>
       <c r="R15" t="n">
-        <v>7017383.169662394</v>
+        <v>7017259.851631644</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2376,10 +2368,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>94963239</v>
+        <v>94963038</v>
       </c>
       <c r="B16" t="n">
-        <v>103250</v>
+        <v>78569</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2388,39 +2380,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221725</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2428,10 +2411,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>434232.4482013849</v>
+        <v>434225.0354556352</v>
       </c>
       <c r="R16" t="n">
-        <v>7017379.898191548</v>
+        <v>7017259.851631644</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2501,10 +2484,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>102611107</v>
+        <v>94963207</v>
       </c>
       <c r="B17" t="n">
-        <v>96334</v>
+        <v>96660</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2513,49 +2496,45 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>219880</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
+          <t>(L.) All.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Mörsil, Blecktjärnberget, Mörsil, Jmt</t>
+          <t>Blecktjärnberget N, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>434065.9006318445</v>
+        <v>434246.2419267034</v>
       </c>
       <c r="R17" t="n">
-        <v>7017193.778879828</v>
+        <v>7017326.945739863</v>
       </c>
       <c r="S17" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2579,22 +2558,22 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2021-06-26</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2021-06-26</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2610,22 +2589,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Johnsen</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Johnsen</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>102611204</v>
+        <v>94963260</v>
       </c>
       <c r="B18" t="n">
-        <v>96232</v>
+        <v>96354</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2638,41 +2617,49 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>219795</v>
+        <v>221952</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Grönkulla</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Coeloglossum viride</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hartm.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Mörsil, Jmt</t>
+          <t>Blecktjärnberget N, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>434110.933580164</v>
+        <v>434236.4763898699</v>
       </c>
       <c r="R18" t="n">
-        <v>7017367.528716818</v>
+        <v>7017466.69782447</v>
       </c>
       <c r="S18" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2696,7 +2683,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2021-06-26</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2706,7 +2693,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2021-06-26</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2727,22 +2714,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Johnsen</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Johnsen</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>90840129</v>
+        <v>94963406</v>
       </c>
       <c r="B19" t="n">
-        <v>95661</v>
+        <v>78569</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2751,41 +2738,44 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>222741</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Blecktjärnberget_Ö, Jmt</t>
+          <t>Blecktjärnberget N, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>434297.2137459199</v>
+        <v>434320.166674193</v>
       </c>
       <c r="R19" t="n">
-        <v>7017438.897354239</v>
+        <v>7017415.020133032</v>
       </c>
       <c r="S19" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2809,7 +2799,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2021-06-26</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2819,7 +2809,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2021-06-26</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2833,37 +2823,29 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>Kalkbarrskog</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Johnsen</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY19" t="inlineStr">
-        <is>
-          <t>Kalkbarrskogar i Jämtlands län</t>
-        </is>
-      </c>
+          <t>Andreas Johnsen</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>90840127</v>
+        <v>94963281</v>
       </c>
       <c r="B20" t="n">
-        <v>98520</v>
+        <v>78569</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2872,41 +2854,44 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>222498</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Blecktjärnberget_Ö, Jmt</t>
+          <t>Blecktjärnberget N, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>434297.2137459199</v>
+        <v>434260.7802753559</v>
       </c>
       <c r="R20" t="n">
-        <v>7017438.897354239</v>
+        <v>7017508.965992403</v>
       </c>
       <c r="S20" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2930,7 +2915,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2021-06-26</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2940,7 +2925,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2021-06-26</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2954,37 +2939,29 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>Kalkbarrskog</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Johnsen</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY20" t="inlineStr">
-        <is>
-          <t>Kalkbarrskogar i Jämtlands län</t>
-        </is>
-      </c>
+          <t>Andreas Johnsen</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>94963329</v>
+        <v>94962933</v>
       </c>
       <c r="B21" t="n">
-        <v>89410</v>
+        <v>96232</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2993,30 +2970,39 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5432</v>
+        <v>219795</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Grönkulla</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Coeloglossum viride</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>(L.) Hartm.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3024,10 +3010,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>434269.4150404329</v>
+        <v>434094.5748307628</v>
       </c>
       <c r="R21" t="n">
-        <v>7017468.27549175</v>
+        <v>7017383.169662394</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3097,10 +3083,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>94963207</v>
+        <v>94963239</v>
       </c>
       <c r="B22" t="n">
-        <v>96660</v>
+        <v>103250</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3113,26 +3099,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>219880</v>
+        <v>221725</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>(L.) A. Gray</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
@@ -3141,10 +3135,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>434246.2419267034</v>
+        <v>434232.4482013849</v>
       </c>
       <c r="R22" t="n">
-        <v>7017326.945739863</v>
+        <v>7017379.898191548</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3214,10 +3208,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>94963406</v>
+        <v>94963309</v>
       </c>
       <c r="B23" t="n">
-        <v>78569</v>
+        <v>103250</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3226,30 +3220,39 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6458</v>
+        <v>221725</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>(L.) A. Gray</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3257,10 +3260,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>434320.166674193</v>
+        <v>434264.7802457917</v>
       </c>
       <c r="R23" t="n">
-        <v>7017415.020133032</v>
+        <v>7017528.240804829</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3330,10 +3333,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>94963281</v>
+        <v>102611118</v>
       </c>
       <c r="B24" t="n">
-        <v>78569</v>
+        <v>89673</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3346,21 +3349,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3369,17 +3372,17 @@
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Blecktjärnberget N, Jmt</t>
+          <t>mörsil, Blecktjärnberget, Mörsil, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>434260.7802753559</v>
+        <v>434241.9566644991</v>
       </c>
       <c r="R24" t="n">
-        <v>7017508.965992403</v>
+        <v>7017359.896222587</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3403,22 +3406,22 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2021-06-26</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2021-06-26</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3434,22 +3437,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>94963309</v>
+        <v>102611107</v>
       </c>
       <c r="B25" t="n">
-        <v>103250</v>
+        <v>96334</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3458,53 +3461,49 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>221725</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>45</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Blecktjärnberget N, Jmt</t>
+          <t>Mörsil, Blecktjärnberget, Mörsil, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>434264.7802457917</v>
+        <v>434065.9006318445</v>
       </c>
       <c r="R25" t="n">
-        <v>7017528.240804829</v>
+        <v>7017193.778879828</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3528,22 +3527,22 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2021-06-26</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2021-06-26</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3559,22 +3558,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>102611118</v>
+        <v>103104990</v>
       </c>
       <c r="B26" t="n">
-        <v>89673</v>
+        <v>96334</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3583,44 +3582,53 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>mörsil, Blecktjärnberget, Mörsil, Jmt</t>
+          <t>Blecktjärnberget N, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>434241.9566644991</v>
+        <v>434354.2930101439</v>
       </c>
       <c r="R26" t="n">
-        <v>7017359.896222587</v>
+        <v>7017386.41321839</v>
       </c>
       <c r="S26" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3644,22 +3652,27 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2022-07-29</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2022-07-29</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Ca, varav 3 blomskott.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3675,22 +3688,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Johnsen</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Johnsen</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>103104990</v>
+        <v>102611135</v>
       </c>
       <c r="B27" t="n">
-        <v>96334</v>
+        <v>78569</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3699,53 +3712,44 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Blecktjärnberget N, Jmt</t>
+          <t>Mörsil, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>434354.2930101439</v>
+        <v>434300.4342516295</v>
       </c>
       <c r="R27" t="n">
-        <v>7017386.41321839</v>
+        <v>7017309.632198842</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3769,27 +3773,22 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2022-07-29</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2022-07-29</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Ca, varav 3 blomskott.</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3805,22 +3804,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Andreas Johnsen</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>102611135</v>
+        <v>102611113</v>
       </c>
       <c r="B28" t="n">
-        <v>78569</v>
+        <v>89410</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3833,21 +3832,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3856,14 +3855,14 @@
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Mörsil, Jmt</t>
+          <t>Mörsil, Blecktjärnberget, Mörsil, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>434300.4342516295</v>
+        <v>434274.9430811582</v>
       </c>
       <c r="R28" t="n">
-        <v>7017309.632198842</v>
+        <v>7017275.488688656</v>
       </c>
       <c r="S28" t="n">
         <v>50</v>
@@ -3933,10 +3932,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>102611113</v>
+        <v>102611123</v>
       </c>
       <c r="B29" t="n">
-        <v>89410</v>
+        <v>78570</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3949,21 +3948,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3972,14 +3971,14 @@
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Mörsil, Blecktjärnberget, Mörsil, Jmt</t>
+          <t>Mörsil, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>434274.9430811582</v>
+        <v>434300.4342516295</v>
       </c>
       <c r="R29" t="n">
-        <v>7017275.488688656</v>
+        <v>7017309.632198842</v>
       </c>
       <c r="S29" t="n">
         <v>50</v>
@@ -4049,10 +4048,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>102611123</v>
+        <v>102611204</v>
       </c>
       <c r="B30" t="n">
-        <v>78570</v>
+        <v>96232</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4061,30 +4060,31 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2081</v>
+        <v>219795</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Grönkulla</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Coeloglossum viride</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hartm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4092,13 +4092,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>434300.4342516295</v>
+        <v>434110.933580164</v>
       </c>
       <c r="R30" t="n">
-        <v>7017309.632198842</v>
+        <v>7017367.528716818</v>
       </c>
       <c r="S30" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD30" t="b">
